--- a/artifact/data/xss-game.data.xlsx
+++ b/artifact/data/xss-game.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550793C5-B0B4-E34B-B2E2-D3FFE482C415}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDA6A2-DB82-9845-A14C-5BE3B4DCD9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="-21160" windowWidth="19200" windowHeight="10580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="32000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -54,39 +54,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
     <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
   </si>
   <si>
     <t>nexial.openResult</t>
@@ -579,16 +558,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="106" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
@@ -596,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -606,82 +583,82 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
+    <row r="7" spans="1:703" ht="23" customHeight="1"/>
+    <row r="8" spans="1:703" ht="23" customHeight="1"/>
+    <row r="9" spans="1:703" ht="23" customHeight="1"/>
+    <row r="10" spans="1:703" ht="23" customHeight="1"/>
+    <row r="11" spans="1:703" ht="23" customHeight="1"/>
+    <row r="12" spans="1:703" ht="23" customHeight="1"/>
+    <row r="13" spans="1:703" ht="23" customHeight="1"/>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
